--- a/data/us-home-prices.xlsx
+++ b/data/us-home-prices.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmc\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780C2EB2-685B-44AB-ABC7-59EFFCA7AF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF564DB0-F0F9-416E-A18D-B82D993AF99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Dec 1, 1899</t>
   </si>
@@ -70,6 +70,9 @@
   <si>
     <t>Value</t>
   </si>
+  <si>
+    <t>% Change vs Last Year</t>
+  </si>
 </sst>
 </file>
 
@@ -104,7 +107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -114,6 +117,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -419,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E1DBDB-3289-40C0-9DD1-14993AA4EF6F}">
-  <dimension ref="A1:B136"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -428,1093 +434,1633 @@
     <col min="1" max="1" width="16.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>45627</v>
       </c>
       <c r="B2">
         <v>404500</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" s="4">
+        <f>(B2/B3-1)*100</f>
+        <v>4.4763252702007206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>45261</v>
       </c>
       <c r="B3">
         <v>387169.05380608136</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:C66" si="0">(B3/B4-1)*100</f>
+        <v>6.1614481776551377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>44896</v>
       </c>
       <c r="B4">
         <v>364698.35373588349</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8605861990693491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>44531</v>
       </c>
       <c r="B5">
         <v>351142.20618480525</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>19.251884246766537</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>44166</v>
       </c>
       <c r="B6">
         <v>294454.22049532633</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>11.320159517117023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>43800</v>
       </c>
       <c r="B7">
         <v>264511.13776031724</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="4">
+        <f t="shared" si="0"/>
+        <v>4.0158479071065845</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>43435</v>
       </c>
       <c r="B8">
         <v>254298.881451742</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" s="4">
+        <f t="shared" si="0"/>
+        <v>4.1227703384904224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>43070</v>
       </c>
       <c r="B9">
         <v>244229.84581090894</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="4">
+        <f t="shared" si="0"/>
+        <v>5.7494563686085964</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>42705</v>
       </c>
       <c r="B10">
         <v>230951.39606165185</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>5.747058823529394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>42339</v>
       </c>
       <c r="B11">
         <v>218399.82939578805</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="4">
+        <f t="shared" si="0"/>
+        <v>5.8439429695182232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>41974</v>
       </c>
       <c r="B12">
         <v>206341.35810556923</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6422082618573048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>41609</v>
       </c>
       <c r="B13">
         <v>199090.08266616368</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="4">
+        <f t="shared" si="0"/>
+        <v>10.668610155775848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>41244</v>
       </c>
       <c r="B14">
         <v>179897.51781099156</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>6.2259017781540971</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>40878</v>
       </c>
       <c r="B15">
         <v>169353.72145552209</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.7241520525613803</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>40513</v>
       </c>
       <c r="B16">
         <v>175904.67917559139</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.9045559755471526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>40148</v>
       </c>
       <c r="B17">
         <v>183052.04888884217</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="4">
+        <f t="shared" si="0"/>
+        <v>-3.7731447914391758</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>39783</v>
       </c>
       <c r="B18">
         <v>190229.69054958469</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>-12.044196397711115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>39417</v>
       </c>
       <c r="B19">
         <v>216278.72494889505</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="4">
+        <f t="shared" si="0"/>
+        <v>-4.8270929907846982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>39052</v>
       </c>
       <c r="B20">
         <v>227248.20723186847</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2972889104384544</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>38687</v>
       </c>
       <c r="B21">
         <v>224337.89657765563</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="4">
+        <f t="shared" si="0"/>
+        <v>13.756204143698913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>38322</v>
       </c>
       <c r="B22">
         <v>197209.37268113121</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="4">
+        <f t="shared" si="0"/>
+        <v>13.023552004016437</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>37956</v>
       </c>
       <c r="B23">
         <v>174485.20169860095</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="4">
+        <f t="shared" si="0"/>
+        <v>9.7180496054115153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>37591</v>
       </c>
       <c r="B24">
         <v>159030.53538238889</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" s="4">
+        <f t="shared" si="0"/>
+        <v>9.6118714409806127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>37226</v>
       </c>
       <c r="B25">
         <v>145085.13839946364</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C25" s="4">
+        <f t="shared" si="0"/>
+        <v>6.1891736794079</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>36861</v>
       </c>
       <c r="B26">
         <v>136628.9362392867</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C26" s="4">
+        <f t="shared" si="0"/>
+        <v>9.4031129801253499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>36495</v>
       </c>
       <c r="B27">
         <v>124885.78479856174</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" s="4">
+        <f t="shared" si="0"/>
+        <v>7.6107865168539401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>36130</v>
       </c>
       <c r="B28">
         <v>116053.2218385024</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" s="4">
+        <f t="shared" si="0"/>
+        <v>6.4190143000058875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>35765</v>
       </c>
       <c r="B29">
         <v>109053.08849350618</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" s="4">
+        <f t="shared" si="0"/>
+        <v>3.8512086192367789</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>35400</v>
       </c>
       <c r="B30">
         <v>105008.97384193353</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C30" s="4">
+        <f t="shared" si="0"/>
+        <v>2.1747932454203811</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>35034</v>
       </c>
       <c r="B31">
         <v>102773.85498564754</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0190574086142554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>34669</v>
       </c>
       <c r="B32">
         <v>100739.8593911823</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C32" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6521060104117256</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>34304</v>
       </c>
       <c r="B33">
         <v>98137.157927343957</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C33" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9435972238559973</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>33939</v>
       </c>
       <c r="B34">
         <v>96266.132057167313</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" s="4">
+        <f t="shared" si="0"/>
+        <v>1.2598847195803842</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>33573</v>
       </c>
       <c r="B35">
         <v>95068.380063593504</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.54855133143526524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>33208</v>
       </c>
       <c r="B36">
         <v>95592.755396074324</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36" s="4">
+        <f t="shared" si="0"/>
+        <v>-0.76065830721003813</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>32843</v>
       </c>
       <c r="B37">
         <v>96325.463032590254</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" s="4">
+        <f t="shared" si="0"/>
+        <v>4.9446453697430837</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>32478</v>
       </c>
       <c r="B38">
         <v>91786.925091046272</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C38" s="4">
+        <f t="shared" si="0"/>
+        <v>7.3453705388196289</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>32112</v>
       </c>
       <c r="B39">
         <v>85506.179381860798</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C39" s="4">
+        <f t="shared" si="0"/>
+        <v>11.786207989854125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>31747</v>
       </c>
       <c r="B40">
         <v>76490.813061322784</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C40" s="4">
+        <f t="shared" si="0"/>
+        <v>7.7333566133676479</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>31382</v>
       </c>
       <c r="B41">
         <v>71000.120543753423</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C41" s="4">
+        <f t="shared" si="0"/>
+        <v>6.0236503566512223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>31017</v>
       </c>
       <c r="B42">
         <v>66966.304503681284</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" s="4">
+        <f t="shared" si="0"/>
+        <v>4.6690963169218946</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>30651</v>
       </c>
       <c r="B43">
         <v>63979.060544210333</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C43" s="4">
+        <f t="shared" si="0"/>
+        <v>4.4755873579996441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>30286</v>
       </c>
       <c r="B44">
         <v>61238.28749100733</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5978051810896288</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>29921</v>
       </c>
       <c r="B45">
         <v>60275.207108908682</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C45" s="4">
+        <f t="shared" si="0"/>
+        <v>4.566136703112833</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>29556</v>
       </c>
       <c r="B46">
         <v>57643.142425777638</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C46" s="4">
+        <f t="shared" si="0"/>
+        <v>6.6142337750594749</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>29190</v>
       </c>
       <c r="B47">
         <v>54067.023121318198</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47" s="4">
+        <f t="shared" si="0"/>
+        <v>13.17917022711943</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>28825</v>
       </c>
       <c r="B48">
         <v>47771.178223714283</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C48" s="4">
+        <f t="shared" si="0"/>
+        <v>13.669671361502346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>28460</v>
       </c>
       <c r="B49">
         <v>42026.318587469264</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C49" s="4">
+        <f t="shared" si="0"/>
+        <v>13.868452986621428</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>28095</v>
       </c>
       <c r="B50">
         <v>36907.780412549379</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C50" s="4">
+        <f t="shared" si="0"/>
+        <v>7.8500522142719076</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>27729</v>
       </c>
       <c r="B51">
         <v>34221.383907374067</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" s="4">
+        <f t="shared" si="0"/>
+        <v>8.1187842342636642</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>27364</v>
       </c>
       <c r="B52">
         <v>31651.654381560325</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C52" s="4">
+        <f t="shared" si="0"/>
+        <v>9.1156923859805339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>26999</v>
       </c>
       <c r="B53">
         <v>29007.426603313212</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C53" s="4">
+        <f t="shared" si="0"/>
+        <v>4.0435011138539423</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>26634</v>
       </c>
       <c r="B54">
         <v>27880.094664990778</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C54" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5717903982673604</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>26268</v>
       </c>
       <c r="B55">
         <v>26918.618050129971</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" s="4">
+        <f t="shared" si="0"/>
+        <v>4.3770559610705417</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>25903</v>
       </c>
       <c r="B56">
         <v>25789.784739828068</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C56" s="4">
+        <f t="shared" si="0"/>
+        <v>7.7837655860348853</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>25538</v>
       </c>
       <c r="B57">
         <v>23927.336922778235</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C57" s="4">
+        <f t="shared" si="0"/>
+        <v>7.3213077747651178</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>25173</v>
       </c>
       <c r="B58">
         <v>22295.047851070227</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C58" s="4">
+        <f t="shared" si="0"/>
+        <v>3.3209081836327314</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>24807</v>
       </c>
       <c r="B59">
         <v>21578.447424644328</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C59" s="4">
+        <f t="shared" si="0"/>
+        <v>2.7904365840083933</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>24442</v>
       </c>
       <c r="B60">
         <v>20992.660544844297</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C60" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4007667615528963</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>24077</v>
       </c>
       <c r="B61">
         <v>20702.664501748</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C61" s="4">
+        <f t="shared" si="0"/>
+        <v>1.389847581179593</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>23712</v>
       </c>
       <c r="B62">
         <v>20418.873285288297</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C62" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6493231030509037</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>23346</v>
       </c>
       <c r="B63">
         <v>20087.564444071977</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C63" s="4">
+        <f t="shared" si="0"/>
+        <v>1.6703361242567771</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>22981</v>
       </c>
       <c r="B64">
         <v>19757.546999276059</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C64" s="4">
+        <f t="shared" si="0"/>
+        <v>0.61915662650600112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>22616</v>
       </c>
       <c r="B65">
         <v>19635.969592366218</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C65" s="4">
+        <f t="shared" si="0"/>
+        <v>0.54365381144334535</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>22251</v>
       </c>
       <c r="B66">
         <v>19529.795116846406</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C66" s="4">
+        <f t="shared" si="0"/>
+        <v>0.97540850453894379</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>21885</v>
       </c>
       <c r="B67">
         <v>19341.139992484925</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C67" s="4">
+        <f t="shared" ref="C67:C130" si="1">(B67/B68-1)*100</f>
+        <v>-0.1678521272201472</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>21520</v>
       </c>
       <c r="B68">
         <v>19373.659091390204</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C68" s="4">
+        <f t="shared" si="1"/>
+        <v>0.10697186790145086</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>21155</v>
       </c>
       <c r="B69">
         <v>19352.956871930139</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C69" s="4">
+        <f t="shared" si="1"/>
+        <v>3.5152696805725192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>20790</v>
       </c>
       <c r="B70">
         <v>18695.750812077778</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C70" s="4">
+        <f t="shared" si="1"/>
+        <v>0.75450511945391874</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>20424</v>
       </c>
       <c r="B71">
         <v>18555.746752874438</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C71" s="4">
+        <f t="shared" si="1"/>
+        <v>0.30178717598909888</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>20059</v>
       </c>
       <c r="B72">
         <v>18499.916377677899</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C72" s="4">
+        <f t="shared" si="1"/>
+        <v>0.8245747936031167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>19694</v>
       </c>
       <c r="B73">
         <v>18348.618296232715</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C73" s="4">
+        <f t="shared" si="1"/>
+        <v>11.856842677235857</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>19329</v>
       </c>
       <c r="B74">
         <v>16403.661910230967</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C74" s="4">
+        <f t="shared" si="1"/>
+        <v>4.0034764175940651</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>18963</v>
       </c>
       <c r="B75">
         <v>15772.22461715327</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C75" s="4">
+        <f t="shared" si="1"/>
+        <v>4.376391410961622</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>18598</v>
       </c>
       <c r="B76">
         <v>15110.911963849392</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C76" s="4">
+        <f t="shared" si="1"/>
+        <v>5.9244031641055628</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>18233</v>
       </c>
       <c r="B77">
         <v>14265.751340074583</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C77" s="4">
+        <f t="shared" si="1"/>
+        <v>0.13353303731196142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>17868</v>
       </c>
       <c r="B78">
         <v>14246.727252456827</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C78" s="4">
+        <f t="shared" si="1"/>
+        <v>0.36371511131541023</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>17502</v>
       </c>
       <c r="B79">
         <v>14195.097537646447</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C79" s="4">
+        <f t="shared" si="1"/>
+        <v>21.644355747420807</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>17137</v>
       </c>
       <c r="B80">
         <v>11669.343349658393</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C80" s="4">
+        <f t="shared" si="1"/>
+        <v>23.18803674379275</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>16772</v>
       </c>
       <c r="B81">
         <v>9472.7894510798687</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C81" s="4">
+        <f t="shared" si="1"/>
+        <v>11.569327731092427</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>16407</v>
       </c>
       <c r="B82">
         <v>8490.4961280321204</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C82" s="4">
+        <f t="shared" si="1"/>
+        <v>16.262842367362573</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>16041</v>
       </c>
       <c r="B83">
         <v>7302.8458234353138</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C83" s="4">
+        <f t="shared" si="1"/>
+        <v>11.200903907950677</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>15676</v>
       </c>
       <c r="B84">
         <v>6567.2540121440261</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C84" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4135533942430287</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>15311</v>
       </c>
       <c r="B85">
         <v>6412.4852565785404</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C85" s="4">
+        <f t="shared" si="1"/>
+        <v>-5.3043846720707162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>14946</v>
       </c>
       <c r="B86">
         <v>6771.6812804607844</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C86" s="4">
+        <f t="shared" si="1"/>
+        <v>4.009916855631146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>14580</v>
       </c>
       <c r="B87">
         <v>6510.6111851431233</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C87" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.0113925729442927</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>14215</v>
       </c>
       <c r="B88">
         <v>6644.25320054653</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C88" s="4">
+        <f t="shared" si="1"/>
+        <v>0.55078431372550529</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>13850</v>
       </c>
       <c r="B89">
         <v>6607.858154359089</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C89" s="4">
+        <f t="shared" si="1"/>
+        <v>0.42346704871061291</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>13485</v>
       </c>
       <c r="B90">
         <v>6579.9940477597074</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C90" s="4">
+        <f t="shared" si="1"/>
+        <v>3.9105470290662803</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>13119</v>
       </c>
       <c r="B91">
         <v>6332.3639764105228</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C91" s="4">
+        <f t="shared" si="1"/>
+        <v>8.0592889782489241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>12754</v>
       </c>
       <c r="B92">
         <v>5860.0829565750273</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C92" s="4">
+        <f t="shared" si="1"/>
+        <v>4.401132110431738</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>12389</v>
       </c>
       <c r="B93">
         <v>5613.0454125501665</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C93" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.2154545454545316</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>12024</v>
       </c>
       <c r="B94">
         <v>5740.2173180416894</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C94" s="4">
+        <f t="shared" si="1"/>
+        <v>-10.001789622308499</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>11658</v>
       </c>
       <c r="B95">
         <v>6378.146069740691</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C95" s="4">
+        <f t="shared" si="1"/>
+        <v>-8.772906685734716</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>11293</v>
       </c>
       <c r="B96">
         <v>6991.5042100144747</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C96" s="4">
+        <f t="shared" si="1"/>
+        <v>-4.7811258338664171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>10928</v>
       </c>
       <c r="B97">
         <v>7342.5613054571668</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C97" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.6250222459512251</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>10563</v>
       </c>
       <c r="B98">
         <v>7540.5011377800993</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C98" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5170214709913088</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>10197</v>
       </c>
       <c r="B99">
         <v>7427.8195208227344</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C99" s="4">
+        <f t="shared" si="1"/>
+        <v>-2.6517430036893774</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>9832</v>
       </c>
       <c r="B100">
         <v>7630.1515301955942</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C100" s="4">
+        <f t="shared" si="1"/>
+        <v>-5.1817072744738564</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>9467</v>
       </c>
       <c r="B101">
         <v>8047.1302644974458</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C101" s="4">
+        <f t="shared" si="1"/>
+        <v>5.1572391439481446</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>9102</v>
       </c>
       <c r="B102">
         <v>7652.4738857796101</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C102" s="4">
+        <f t="shared" si="1"/>
+        <v>0.19574695257584818</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>8736</v>
       </c>
       <c r="B103">
         <v>7637.5236659512511</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C103" s="4">
+        <f t="shared" si="1"/>
+        <v>2.1068301287705093</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>8371</v>
       </c>
       <c r="B104">
         <v>7479.9341594673951</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C104" s="4">
+        <f t="shared" si="1"/>
+        <v>3.199820578542667</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>8006</v>
       </c>
       <c r="B105">
         <v>7248.0108177849143</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C105" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.4153151344841519</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>7641</v>
       </c>
       <c r="B106">
         <v>7352.0657165687326</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C106" s="4">
+        <f t="shared" si="1"/>
+        <v>5.2223960565795036</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>7275</v>
       </c>
       <c r="B107">
         <v>6987.1681239946556</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C107" s="4">
+        <f t="shared" si="1"/>
+        <v>12.988108858936108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>6910</v>
       </c>
       <c r="B108">
         <v>6183.9853720518731</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C108" s="4">
+        <f t="shared" si="1"/>
+        <v>6.174402544298041</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>6545</v>
       </c>
       <c r="B109">
         <v>5824.3655945902719</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C109" s="4">
+        <f t="shared" si="1"/>
+        <v>6.0550384675773117</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>6180</v>
       </c>
       <c r="B110">
         <v>5491.8329942154251</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C110" s="4">
+        <f t="shared" si="1"/>
+        <v>9.7143783866290079</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>5814</v>
       </c>
       <c r="B111">
         <v>5005.5727197965143</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C111" s="4">
+        <f t="shared" si="1"/>
+        <v>-7.0059532806595932</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>5449</v>
       </c>
       <c r="B112">
         <v>5382.6808235408062</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C112" s="4">
+        <f t="shared" si="1"/>
+        <v>3.6952656459465327</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>5084</v>
       </c>
       <c r="B113">
         <v>5190.8645877037843</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C113" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.96437996167535456</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>4719</v>
       </c>
       <c r="B114">
         <v>5241.411711962859</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C114" s="4">
+        <f t="shared" si="1"/>
+        <v>4.1402649884067388</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>4353</v>
       </c>
       <c r="B115">
         <v>5033.0308959232543</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C115" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.3179221465865032</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>3988</v>
       </c>
       <c r="B116">
         <v>5100.248196434949</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C116" s="4">
+        <f t="shared" si="1"/>
+        <v>10.125859085290468</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>3623</v>
       </c>
       <c r="B117">
         <v>4631.2902698764874</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C117" s="4">
+        <f t="shared" si="1"/>
+        <v>-0.8265778506524657</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>3258</v>
       </c>
       <c r="B118">
         <v>4669.890550819272</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C118" s="4">
+        <f t="shared" si="1"/>
+        <v>-9.4214292534463127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>2892</v>
       </c>
       <c r="B119">
         <v>5155.6240204827373</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C119" s="4">
+        <f t="shared" si="1"/>
+        <v>10.58546824542519</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>2527</v>
       </c>
       <c r="B120">
         <v>4662.1170957478134</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C120" s="4">
+        <f t="shared" si="1"/>
+        <v>16.90869611253969</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>2162</v>
       </c>
       <c r="B121">
         <v>3987.8274677359541</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C121" s="4">
+        <f t="shared" si="1"/>
+        <v>-12.373252037908411</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>1797</v>
       </c>
       <c r="B122">
         <v>4550.9248722332331</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C122" s="4">
+        <f t="shared" si="1"/>
+        <v>2.2171523178807773</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>1431</v>
       </c>
       <c r="B123">
         <v>4452.2125387337201</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C123" s="4">
+        <f t="shared" si="1"/>
+        <v>3.0756608070599656</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>1066</v>
       </c>
       <c r="B124">
         <v>4319.3635664073026</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C124" s="4">
+        <f t="shared" si="1"/>
+        <v>19.668558897243106</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>701</v>
       </c>
       <c r="B125">
         <v>3609.4389422005574</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C125" s="4">
+        <f t="shared" si="1"/>
+        <v>-17.630123920390549</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>336</v>
       </c>
       <c r="B126">
         <v>4381.9890401584189</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C126" s="4">
+        <f t="shared" si="1"/>
+        <v>16.279644926459657</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B127">
         <v>3768.4919341900131</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C127" s="4">
+        <f t="shared" si="1"/>
+        <v>-1.3339718035974668</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B128">
         <v>3819.4422164116427</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C128" s="4">
+        <f t="shared" si="1"/>
+        <v>6.4155243863564193</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B129">
         <v>3589.17764906615</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C129" s="4">
+        <f t="shared" si="1"/>
+        <v>6.0968562972706364</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B130">
         <v>3382.9255402343924</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C130" s="4">
+        <f t="shared" si="1"/>
+        <v>-14.914079578971705</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B131">
         <v>3975.893453928401</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C131" s="4">
+        <f t="shared" ref="C131:C136" si="2">(B131/B132-1)*100</f>
+        <v>-10.392604613186363</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B132">
         <v>4437.0148655313797</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C132" s="4">
+        <f t="shared" si="2"/>
+        <v>20.773004970052256</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B133">
         <v>3673.8465409812516</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C133" s="4">
+        <f t="shared" si="2"/>
+        <v>-0.58622980251346046</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B134">
         <v>3695.5107262133961</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C134" s="4">
+        <f t="shared" si="2"/>
+        <v>8.3868925655660842</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B135">
         <v>3409.5550105174243</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C135" s="4">
+        <f t="shared" si="2"/>
+        <v>-11.26108524477919</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B136">
         <v>3842.2320353166465</v>
       </c>
+      <c r="C136" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/us-home-prices.xlsx
+++ b/data/us-home-prices.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianmc\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\McLean Capital Dropbox\Ian McLean\_Website + data + articles\___Real CPI website\_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF564DB0-F0F9-416E-A18D-B82D993AF99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC67FC51-74E0-4DA9-9768-AD75FEF25A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="5" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>% Change vs Last Year</t>
+  </si>
+  <si>
+    <t>2024-11-01</t>
+  </si>
   <si>
     <t>Dec 1, 1899</t>
   </si>
@@ -63,15 +75,6 @@
   </si>
   <si>
     <t>Dec 1, 1890</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>% Change vs Last Year</t>
   </si>
 </sst>
 </file>
@@ -424,52 +427,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91E1DBDB-3289-40C0-9DD1-14993AA4EF6F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5234375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1">
-        <v>45627</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>404500</v>
+        <v>406100</v>
       </c>
       <c r="C2" s="4">
         <f>(B2/B3-1)*100</f>
-        <v>4.4763252702007206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>4.8895814393782544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45261</v>
       </c>
       <c r="B3">
-        <v>387169.05380608136</v>
+        <v>387169.05380608141</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C66" si="0">(B3/B4-1)*100</f>
-        <v>6.1614481776551377</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f>(B3/B4-1)*100</f>
+        <v>6.16144817765516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44896</v>
       </c>
@@ -477,23 +480,23 @@
         <v>364698.35373588349</v>
       </c>
       <c r="C4" s="4">
-        <f t="shared" si="0"/>
-        <v>3.8605861990693491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f>(B4/B5-1)*100</f>
+        <v>3.8605861990693269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44531</v>
       </c>
       <c r="B5">
-        <v>351142.20618480525</v>
+        <v>351142.20618480531</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" si="0"/>
-        <v>19.251884246766537</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f>(B5/B6-1)*100</f>
+        <v>19.251884246766558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44166</v>
       </c>
@@ -501,23 +504,23 @@
         <v>294454.22049532633</v>
       </c>
       <c r="C6" s="4">
-        <f t="shared" si="0"/>
-        <v>11.320159517117023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="C2:C33" si="0">(B6/B7-1)*100</f>
+        <v>11.320159517117045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43800</v>
       </c>
       <c r="B7">
-        <v>264511.13776031724</v>
+        <v>264511.13776031719</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" si="0"/>
-        <v>4.0158479071065845</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>4.0158479071065623</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43435</v>
       </c>
@@ -526,94 +529,94 @@
       </c>
       <c r="C8" s="4">
         <f t="shared" si="0"/>
-        <v>4.1227703384904224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>4.1227703384904446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43070</v>
       </c>
       <c r="B9">
-        <v>244229.84581090894</v>
+        <v>244229.84581090891</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>5.7494563686085964</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42705</v>
       </c>
       <c r="B10">
-        <v>230951.39606165185</v>
+        <v>230951.39606165179</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" si="0"/>
-        <v>5.747058823529394</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>5.7470588235293496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42339</v>
       </c>
       <c r="B11">
-        <v>218399.82939578805</v>
+        <v>218399.82939578811</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" si="0"/>
-        <v>5.8439429695182232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>5.8439429695182676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>41974</v>
       </c>
       <c r="B12">
-        <v>206341.35810556923</v>
+        <v>206341.3581055692</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" si="0"/>
-        <v>3.6422082618573048</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>3.6422082618572826</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>41609</v>
       </c>
       <c r="B13">
-        <v>199090.08266616368</v>
+        <v>199090.08266616371</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>10.668610155775848</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>41244</v>
       </c>
       <c r="B14">
-        <v>179897.51781099156</v>
+        <v>179897.51781099159</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>6.2259017781540971</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40878</v>
       </c>
       <c r="B15">
-        <v>169353.72145552209</v>
+        <v>169353.72145552211</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" si="0"/>
-        <v>-3.7241520525613803</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>-3.7241520525613692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40513</v>
       </c>
@@ -622,22 +625,22 @@
       </c>
       <c r="C16" s="4">
         <f t="shared" si="0"/>
-        <v>-3.9045559755471526</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>-3.9045559755471637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40148</v>
       </c>
       <c r="B17">
-        <v>183052.04888884217</v>
+        <v>183052.0488888422</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" si="0"/>
-        <v>-3.7731447914391758</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>-3.7731447914391647</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>39783</v>
       </c>
@@ -646,46 +649,46 @@
       </c>
       <c r="C18" s="4">
         <f t="shared" si="0"/>
-        <v>-12.044196397711115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>-12.044196397711094</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>39417</v>
       </c>
       <c r="B19">
-        <v>216278.72494889505</v>
+        <v>216278.72494889499</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" si="0"/>
-        <v>-4.8270929907846982</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>-4.8270929907847426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>39052</v>
       </c>
       <c r="B20">
-        <v>227248.20723186847</v>
+        <v>227248.2072318685</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" si="0"/>
-        <v>1.2972889104384544</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2972889104384988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>38687</v>
       </c>
       <c r="B21">
-        <v>224337.89657765563</v>
+        <v>224337.8965776556</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="0"/>
         <v>13.756204143698913</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>38322</v>
       </c>
@@ -694,22 +697,22 @@
       </c>
       <c r="C22" s="4">
         <f t="shared" si="0"/>
-        <v>13.023552004016437</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>13.023552004016391</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>37956</v>
       </c>
       <c r="B23">
-        <v>174485.20169860095</v>
+        <v>174485.20169860101</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" si="0"/>
-        <v>9.7180496054115153</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>9.7180496054115615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>37591</v>
       </c>
@@ -718,22 +721,22 @@
       </c>
       <c r="C24" s="4">
         <f t="shared" si="0"/>
-        <v>9.6118714409806127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>9.6118714409806358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>37226</v>
       </c>
       <c r="B25">
-        <v>145085.13839946364</v>
+        <v>145085.13839946361</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" si="0"/>
-        <v>6.1891736794079</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>6.1891736794078778</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>36861</v>
       </c>
@@ -742,22 +745,22 @@
       </c>
       <c r="C26" s="4">
         <f t="shared" si="0"/>
-        <v>9.4031129801253499</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>9.4031129801253712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>36495</v>
       </c>
       <c r="B27">
-        <v>124885.78479856174</v>
+        <v>124885.7847985617</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" si="0"/>
-        <v>7.6107865168539401</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>7.6107865168539179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>36130</v>
       </c>
@@ -766,46 +769,46 @@
       </c>
       <c r="C28" s="4">
         <f t="shared" si="0"/>
-        <v>6.4190143000058875</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>6.4190143000058431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>35765</v>
       </c>
       <c r="B29">
-        <v>109053.08849350618</v>
+        <v>109053.08849350621</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" si="0"/>
-        <v>3.8512086192367789</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>3.8512086192368455</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>35400</v>
       </c>
       <c r="B30">
-        <v>105008.97384193353</v>
+        <v>105008.9738419335</v>
       </c>
       <c r="C30" s="4">
         <f t="shared" si="0"/>
         <v>2.1747932454203811</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>35034</v>
       </c>
       <c r="B31">
-        <v>102773.85498564754</v>
+        <v>102773.8549856475</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" si="0"/>
-        <v>2.0190574086142554</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <v>2.019057408614211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>34669</v>
       </c>
@@ -817,7 +820,7 @@
         <v>2.6521060104117256</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>34304</v>
       </c>
@@ -829,7 +832,7 @@
         <v>1.9435972238559973</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33939</v>
       </c>
@@ -837,11 +840,11 @@
         <v>96266.132057167313</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C34:C65" si="1">(B34/B35-1)*100</f>
         <v>1.2598847195803842</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33573</v>
       </c>
@@ -849,11 +852,11 @@
         <v>95068.380063593504</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.54855133143526524</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>33208</v>
       </c>
@@ -861,11 +864,11 @@
         <v>95592.755396074324</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.76065830721003813</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>32843</v>
       </c>
@@ -873,11 +876,11 @@
         <v>96325.463032590254</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9446453697430837</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>32478</v>
       </c>
@@ -885,11 +888,11 @@
         <v>91786.925091046272</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3453705388196289</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>32112</v>
       </c>
@@ -897,11 +900,11 @@
         <v>85506.179381860798</v>
       </c>
       <c r="C39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.786207989854125</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>31747</v>
       </c>
@@ -909,11 +912,11 @@
         <v>76490.813061322784</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7333566133676479</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>31382</v>
       </c>
@@ -921,11 +924,11 @@
         <v>71000.120543753423</v>
       </c>
       <c r="C41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.0236503566512223</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>31017</v>
       </c>
@@ -933,11 +936,11 @@
         <v>66966.304503681284</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.6690963169218946</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>30651</v>
       </c>
@@ -945,11 +948,11 @@
         <v>63979.060544210333</v>
       </c>
       <c r="C43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.4755873579996441</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>30286</v>
       </c>
@@ -957,11 +960,11 @@
         <v>61238.28749100733</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5978051810896288</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>29921</v>
       </c>
@@ -969,11 +972,11 @@
         <v>60275.207108908682</v>
       </c>
       <c r="C45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.566136703112833</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>29556</v>
       </c>
@@ -981,11 +984,11 @@
         <v>57643.142425777638</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6142337750594749</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>29190</v>
       </c>
@@ -993,11 +996,11 @@
         <v>54067.023121318198</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.17917022711943</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>28825</v>
       </c>
@@ -1005,23 +1008,23 @@
         <v>47771.178223714283</v>
       </c>
       <c r="C48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.669671361502346</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>28460</v>
       </c>
       <c r="B49">
-        <v>42026.318587469264</v>
+        <v>42026.318587469257</v>
       </c>
       <c r="C49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.868452986621428</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>28095</v>
       </c>
@@ -1029,11 +1032,11 @@
         <v>36907.780412549379</v>
       </c>
       <c r="C50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8500522142719076</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>27729</v>
       </c>
@@ -1041,23 +1044,23 @@
         <v>34221.383907374067</v>
       </c>
       <c r="C51" s="4">
-        <f t="shared" si="0"/>
-        <v>8.1187842342636642</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>8.1187842342636429</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>27364</v>
       </c>
       <c r="B52">
-        <v>31651.654381560325</v>
+        <v>31651.654381560329</v>
       </c>
       <c r="C52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.1156923859805339</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>26999</v>
       </c>
@@ -1065,11 +1068,11 @@
         <v>29007.426603313212</v>
       </c>
       <c r="C53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0435011138539423</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>26634</v>
       </c>
@@ -1077,11 +1080,11 @@
         <v>27880.094664990778</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5717903982673604</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>26268</v>
       </c>
@@ -1089,11 +1092,11 @@
         <v>26918.618050129971</v>
       </c>
       <c r="C55" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3770559610705417</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>25903</v>
       </c>
@@ -1101,59 +1104,59 @@
         <v>25789.784739828068</v>
       </c>
       <c r="C56" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7837655860348853</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>25538</v>
       </c>
       <c r="B57">
-        <v>23927.336922778235</v>
+        <v>23927.336922778239</v>
       </c>
       <c r="C57" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3213077747651178</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>25173</v>
       </c>
       <c r="B58">
-        <v>22295.047851070227</v>
+        <v>22295.047851070231</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.3209081836327314</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>24807</v>
       </c>
       <c r="B59">
-        <v>21578.447424644328</v>
+        <v>21578.447424644331</v>
       </c>
       <c r="C59" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7904365840083933</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>24442</v>
       </c>
       <c r="B60">
-        <v>20992.660544844297</v>
+        <v>20992.660544844301</v>
       </c>
       <c r="C60" s="4">
-        <f t="shared" si="0"/>
-        <v>1.4007667615528963</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>1.4007667615529185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>24077</v>
       </c>
@@ -1161,35 +1164,35 @@
         <v>20702.664501748</v>
       </c>
       <c r="C61" s="4">
-        <f t="shared" si="0"/>
-        <v>1.389847581179593</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>1.3898475811795707</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>23712</v>
       </c>
       <c r="B62">
-        <v>20418.873285288297</v>
+        <v>20418.8732852883</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6493231030509037</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>23346</v>
       </c>
       <c r="B63">
-        <v>20087.564444071977</v>
+        <v>20087.564444071981</v>
       </c>
       <c r="C63" s="4">
-        <f t="shared" si="0"/>
-        <v>1.6703361242567771</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>1.6703361242567993</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>22981</v>
       </c>
@@ -1197,11 +1200,11 @@
         <v>19757.546999276059</v>
       </c>
       <c r="C64" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.61915662650600112</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>22616</v>
       </c>
@@ -1209,47 +1212,47 @@
         <v>19635.969592366218</v>
       </c>
       <c r="C65" s="4">
-        <f t="shared" si="0"/>
-        <v>0.54365381144334535</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="1"/>
+        <v>0.54365381144332314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>22251</v>
       </c>
       <c r="B66">
-        <v>19529.795116846406</v>
+        <v>19529.79511684641</v>
       </c>
       <c r="C66" s="4">
-        <f t="shared" si="0"/>
-        <v>0.97540850453894379</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="C66:C97" si="2">(B66/B67-1)*100</f>
+        <v>0.9754085045389882</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>21885</v>
       </c>
       <c r="B67">
-        <v>19341.139992484925</v>
+        <v>19341.139992484921</v>
       </c>
       <c r="C67" s="4">
-        <f t="shared" ref="C67:C130" si="1">(B67/B68-1)*100</f>
+        <f t="shared" si="2"/>
         <v>-0.1678521272201472</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>21520</v>
       </c>
       <c r="B68">
-        <v>19373.659091390204</v>
+        <v>19373.6590913902</v>
       </c>
       <c r="C68" s="4">
-        <f t="shared" si="1"/>
-        <v>0.10697186790145086</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>0.10697186790142865</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>21155</v>
       </c>
@@ -1257,11 +1260,11 @@
         <v>19352.956871930139</v>
       </c>
       <c r="C69" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5152696805725192</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>20790</v>
       </c>
@@ -1269,11 +1272,11 @@
         <v>18695.750812077778</v>
       </c>
       <c r="C70" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.75450511945391874</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>20424</v>
       </c>
@@ -1281,11 +1284,11 @@
         <v>18555.746752874438</v>
       </c>
       <c r="C71" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30178717598909888</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>20059</v>
       </c>
@@ -1293,35 +1296,35 @@
         <v>18499.916377677899</v>
       </c>
       <c r="C72" s="4">
-        <f t="shared" si="1"/>
-        <v>0.8245747936031167</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>0.8245747936031389</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>19694</v>
       </c>
       <c r="B73">
-        <v>18348.618296232715</v>
+        <v>18348.618296232711</v>
       </c>
       <c r="C73" s="4">
-        <f t="shared" si="1"/>
-        <v>11.856842677235857</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>11.856842677235813</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>19329</v>
       </c>
       <c r="B74">
-        <v>16403.661910230967</v>
+        <v>16403.661910230971</v>
       </c>
       <c r="C74" s="4">
-        <f t="shared" si="1"/>
-        <v>4.0034764175940651</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>4.0034764175940873</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>18963</v>
       </c>
@@ -1329,71 +1332,71 @@
         <v>15772.22461715327</v>
       </c>
       <c r="C75" s="4">
-        <f t="shared" si="1"/>
-        <v>4.376391410961622</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>4.3763914109616442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>18598</v>
       </c>
       <c r="B76">
-        <v>15110.911963849392</v>
+        <v>15110.91196384939</v>
       </c>
       <c r="C76" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.9244031641055628</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>18233</v>
       </c>
       <c r="B77">
-        <v>14265.751340074583</v>
+        <v>14265.751340074579</v>
       </c>
       <c r="C77" s="4">
-        <f t="shared" si="1"/>
-        <v>0.13353303731196142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>0.13353303731189481</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>17868</v>
       </c>
       <c r="B78">
-        <v>14246.727252456827</v>
+        <v>14246.727252456831</v>
       </c>
       <c r="C78" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36371511131541023</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>17502</v>
       </c>
       <c r="B79">
-        <v>14195.097537646447</v>
+        <v>14195.09753764645</v>
       </c>
       <c r="C79" s="4">
-        <f t="shared" si="1"/>
-        <v>21.644355747420807</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>21.644355747420875</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>17137</v>
       </c>
       <c r="B80">
-        <v>11669.343349658393</v>
+        <v>11669.343349658389</v>
       </c>
       <c r="C80" s="4">
-        <f t="shared" si="1"/>
-        <v>23.18803674379275</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>23.188036743792729</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>16772</v>
       </c>
@@ -1401,11 +1404,11 @@
         <v>9472.7894510798687</v>
       </c>
       <c r="C81" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.569327731092427</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>16407</v>
       </c>
@@ -1413,11 +1416,11 @@
         <v>8490.4961280321204</v>
       </c>
       <c r="C82" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.262842367362573</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>16041</v>
       </c>
@@ -1425,11 +1428,11 @@
         <v>7302.8458234353138</v>
       </c>
       <c r="C83" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.200903907950677</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>15676</v>
       </c>
@@ -1437,11 +1440,11 @@
         <v>6567.2540121440261</v>
       </c>
       <c r="C84" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4135533942430287</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>15311</v>
       </c>
@@ -1449,11 +1452,11 @@
         <v>6412.4852565785404</v>
       </c>
       <c r="C85" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-5.3043846720707162</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>14946</v>
       </c>
@@ -1461,11 +1464,11 @@
         <v>6771.6812804607844</v>
       </c>
       <c r="C86" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.009916855631146</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>14580</v>
       </c>
@@ -1473,11 +1476,11 @@
         <v>6510.6111851431233</v>
       </c>
       <c r="C87" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.0113925729442927</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>14215</v>
       </c>
@@ -1485,11 +1488,11 @@
         <v>6644.25320054653</v>
       </c>
       <c r="C88" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.55078431372550529</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>13850</v>
       </c>
@@ -1497,11 +1500,11 @@
         <v>6607.858154359089</v>
       </c>
       <c r="C89" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.42346704871061291</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>13485</v>
       </c>
@@ -1509,11 +1512,11 @@
         <v>6579.9940477597074</v>
       </c>
       <c r="C90" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9105470290662803</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>13119</v>
       </c>
@@ -1521,11 +1524,11 @@
         <v>6332.3639764105228</v>
       </c>
       <c r="C91" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0592889782489241</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>12754</v>
       </c>
@@ -1533,23 +1536,23 @@
         <v>5860.0829565750273</v>
       </c>
       <c r="C92" s="4">
-        <f t="shared" si="1"/>
-        <v>4.401132110431738</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>4.4011321104317602</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>12389</v>
       </c>
       <c r="B93">
-        <v>5613.0454125501665</v>
+        <v>5613.0454125501656</v>
       </c>
       <c r="C93" s="4">
-        <f t="shared" si="1"/>
-        <v>-2.2154545454545316</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="2"/>
+        <v>-2.2154545454545538</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>12024</v>
       </c>
@@ -1557,11 +1560,11 @@
         <v>5740.2173180416894</v>
       </c>
       <c r="C94" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-10.001789622308499</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>11658</v>
       </c>
@@ -1569,11 +1572,11 @@
         <v>6378.146069740691</v>
       </c>
       <c r="C95" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-8.772906685734716</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>11293</v>
       </c>
@@ -1581,11 +1584,11 @@
         <v>6991.5042100144747</v>
       </c>
       <c r="C96" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-4.7811258338664171</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>10928</v>
       </c>
@@ -1593,11 +1596,11 @@
         <v>7342.5613054571668</v>
       </c>
       <c r="C97" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.6250222459512251</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>10563</v>
       </c>
@@ -1605,11 +1608,11 @@
         <v>7540.5011377800993</v>
       </c>
       <c r="C98" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C98:C129" si="3">(B98/B99-1)*100</f>
         <v>1.5170214709913088</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>10197</v>
       </c>
@@ -1617,11 +1620,11 @@
         <v>7427.8195208227344</v>
       </c>
       <c r="C99" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.6517430036893774</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>9832</v>
       </c>
@@ -1629,11 +1632,11 @@
         <v>7630.1515301955942</v>
       </c>
       <c r="C100" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-5.1817072744738564</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>9467</v>
       </c>
@@ -1641,11 +1644,11 @@
         <v>8047.1302644974458</v>
       </c>
       <c r="C101" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.1572391439481446</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>9102</v>
       </c>
@@ -1653,11 +1656,11 @@
         <v>7652.4738857796101</v>
       </c>
       <c r="C102" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.19574695257584818</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>8736</v>
       </c>
@@ -1665,11 +1668,11 @@
         <v>7637.5236659512511</v>
       </c>
       <c r="C103" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.1068301287705093</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>8371</v>
       </c>
@@ -1677,11 +1680,11 @@
         <v>7479.9341594673951</v>
       </c>
       <c r="C104" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.199820578542667</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>8006</v>
       </c>
@@ -1689,11 +1692,11 @@
         <v>7248.0108177849143</v>
       </c>
       <c r="C105" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.4153151344841519</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>7641</v>
       </c>
@@ -1701,11 +1704,11 @@
         <v>7352.0657165687326</v>
       </c>
       <c r="C106" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5.2223960565795036</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>7275</v>
       </c>
@@ -1713,11 +1716,11 @@
         <v>6987.1681239946556</v>
       </c>
       <c r="C107" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.988108858936108</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>6910</v>
       </c>
@@ -1725,11 +1728,11 @@
         <v>6183.9853720518731</v>
       </c>
       <c r="C108" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.174402544298041</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>6545</v>
       </c>
@@ -1737,11 +1740,11 @@
         <v>5824.3655945902719</v>
       </c>
       <c r="C109" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.0550384675773117</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>6180</v>
       </c>
@@ -1749,11 +1752,11 @@
         <v>5491.8329942154251</v>
       </c>
       <c r="C110" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.7143783866290079</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>5814</v>
       </c>
@@ -1761,11 +1764,11 @@
         <v>5005.5727197965143</v>
       </c>
       <c r="C111" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-7.0059532806595932</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>5449</v>
       </c>
@@ -1773,11 +1776,11 @@
         <v>5382.6808235408062</v>
       </c>
       <c r="C112" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.6952656459465327</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>5084</v>
       </c>
@@ -1785,11 +1788,11 @@
         <v>5190.8645877037843</v>
       </c>
       <c r="C113" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.96437996167535456</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>4719</v>
       </c>
@@ -1797,11 +1800,11 @@
         <v>5241.411711962859</v>
       </c>
       <c r="C114" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.1402649884067388</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>4353</v>
       </c>
@@ -1809,11 +1812,11 @@
         <v>5033.0308959232543</v>
       </c>
       <c r="C115" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-1.3179221465865032</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>3988</v>
       </c>
@@ -1821,11 +1824,11 @@
         <v>5100.248196434949</v>
       </c>
       <c r="C116" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.125859085290468</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>3623</v>
       </c>
@@ -1833,11 +1836,11 @@
         <v>4631.2902698764874</v>
       </c>
       <c r="C117" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-0.8265778506524657</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>3258</v>
       </c>
@@ -1845,11 +1848,11 @@
         <v>4669.890550819272</v>
       </c>
       <c r="C118" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-9.4214292534463127</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2892</v>
       </c>
@@ -1857,11 +1860,11 @@
         <v>5155.6240204827373</v>
       </c>
       <c r="C119" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.58546824542519</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2527</v>
       </c>
@@ -1869,11 +1872,11 @@
         <v>4662.1170957478134</v>
       </c>
       <c r="C120" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16.90869611253969</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2162</v>
       </c>
@@ -1881,11 +1884,11 @@
         <v>3987.8274677359541</v>
       </c>
       <c r="C121" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-12.373252037908411</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>1797</v>
       </c>
@@ -1893,11 +1896,11 @@
         <v>4550.9248722332331</v>
       </c>
       <c r="C122" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.2171523178807773</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>1431</v>
       </c>
@@ -1905,11 +1908,11 @@
         <v>4452.2125387337201</v>
       </c>
       <c r="C123" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.0756608070599656</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>1066</v>
       </c>
@@ -1917,23 +1920,23 @@
         <v>4319.3635664073026</v>
       </c>
       <c r="C124" s="4">
-        <f t="shared" si="1"/>
-        <v>19.668558897243106</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>19.668558897243127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>701</v>
       </c>
       <c r="B125">
-        <v>3609.4389422005574</v>
+        <v>3609.438942200557</v>
       </c>
       <c r="C125" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-17.630123920390549</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>336</v>
       </c>
@@ -1941,126 +1944,129 @@
         <v>4381.9890401584189</v>
       </c>
       <c r="C126" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16.279644926459657</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B127">
         <v>3768.4919341900131</v>
       </c>
       <c r="C127" s="4">
-        <f t="shared" si="1"/>
-        <v>-1.3339718035974668</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>-1.3339718035974779</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B128">
-        <v>3819.4422164116427</v>
+        <v>3819.4422164116431</v>
       </c>
       <c r="C128" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.4155243863564193</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B129">
         <v>3589.17764906615</v>
       </c>
       <c r="C129" s="4">
-        <f t="shared" si="1"/>
-        <v>6.0968562972706364</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="3"/>
+        <v>6.0968562972706586</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B130">
-        <v>3382.9255402343924</v>
+        <v>3382.925540234392</v>
       </c>
       <c r="C130" s="4">
-        <f t="shared" si="1"/>
-        <v>-14.914079578971705</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" ref="C130:C161" si="4">(B130/B131-1)*100</f>
+        <v>-14.914079578971718</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B131">
         <v>3975.893453928401</v>
       </c>
       <c r="C131" s="4">
-        <f t="shared" ref="C131:C136" si="2">(B131/B132-1)*100</f>
+        <f t="shared" si="4"/>
         <v>-10.392604613186363</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B132">
         <v>4437.0148655313797</v>
       </c>
       <c r="C132" s="4">
-        <f t="shared" si="2"/>
-        <v>20.773004970052256</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>20.773004970052234</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B133">
-        <v>3673.8465409812516</v>
+        <v>3673.846540981252</v>
       </c>
       <c r="C133" s="4">
-        <f t="shared" si="2"/>
-        <v>-0.58622980251346046</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>-0.58622980251344936</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B134">
         <v>3695.5107262133961</v>
       </c>
       <c r="C134" s="4">
-        <f t="shared" si="2"/>
-        <v>8.3868925655660842</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+        <f t="shared" si="4"/>
+        <v>8.3868925655661073</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B135">
-        <v>3409.5550105174243</v>
+        <v>3409.5550105174239</v>
       </c>
       <c r="C135" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-11.26108524477919</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B136">
-        <v>3842.2320353166465</v>
-      </c>
-      <c r="C136" s="4"/>
+        <v>3842.232035316646</v>
+      </c>
+      <c r="C136" s="4" t="e">
+        <f>(B136/B148-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/us-home-prices.xlsx
+++ b/data/us-home-prices.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,25 +455,27 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1140</v>
+      </c>
+      <c r="C2">
+        <f>(B2/B3-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>2024-12-01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>406100</v>
-      </c>
-      <c r="C2" s="4">
-        <f>(B2/B3-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45261</v>
-      </c>
-      <c r="B3" t="n">
-        <v>387169.0538060814</v>
       </c>
       <c r="C3" s="4">
         <f>(B3/B4-1)*100</f>
@@ -482,10 +484,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44896</v>
+        <v>45261</v>
       </c>
       <c r="B4" t="n">
-        <v>364698.3537358835</v>
+        <v>387169.0538060814</v>
       </c>
       <c r="C4" s="4">
         <f>(B4/B5-1)*100</f>
@@ -494,10 +496,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44531</v>
+        <v>44896</v>
       </c>
       <c r="B5" t="n">
-        <v>351142.2061848053</v>
+        <v>364698.3537358835</v>
       </c>
       <c r="C5" s="4">
         <f>(B5/B6-1)*100</f>
@@ -506,10 +508,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44166</v>
+        <v>44531</v>
       </c>
       <c r="B6" t="n">
-        <v>294454.2204953263</v>
+        <v>351142.2061848053</v>
       </c>
       <c r="C6" s="4">
         <f>(B6/B7-1)*100</f>
@@ -518,10 +520,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>43800</v>
+        <v>44166</v>
       </c>
       <c r="B7" t="n">
-        <v>264511.1377603172</v>
+        <v>294454.2204953263</v>
       </c>
       <c r="C7" s="4">
         <f>(B7/B8-1)*100</f>
@@ -530,10 +532,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>43435</v>
+        <v>43800</v>
       </c>
       <c r="B8" t="n">
-        <v>254298.881451742</v>
+        <v>264511.1377603172</v>
       </c>
       <c r="C8" s="4">
         <f>(B8/B9-1)*100</f>
@@ -542,10 +544,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>43070</v>
+        <v>43435</v>
       </c>
       <c r="B9" t="n">
-        <v>244229.8458109089</v>
+        <v>254298.881451742</v>
       </c>
       <c r="C9" s="4">
         <f>(B9/B10-1)*100</f>
@@ -554,10 +556,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>42705</v>
+        <v>43070</v>
       </c>
       <c r="B10" t="n">
-        <v>230951.3960616518</v>
+        <v>244229.8458109089</v>
       </c>
       <c r="C10" s="4">
         <f>(B10/B11-1)*100</f>
@@ -566,10 +568,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>42339</v>
+        <v>42705</v>
       </c>
       <c r="B11" t="n">
-        <v>218399.8293957881</v>
+        <v>230951.3960616518</v>
       </c>
       <c r="C11" s="4">
         <f>(B11/B12-1)*100</f>
@@ -578,10 +580,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>41974</v>
+        <v>42339</v>
       </c>
       <c r="B12" t="n">
-        <v>206341.3581055692</v>
+        <v>218399.8293957881</v>
       </c>
       <c r="C12" s="4">
         <f>(B12/B13-1)*100</f>
@@ -590,10 +592,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>41609</v>
+        <v>41974</v>
       </c>
       <c r="B13" t="n">
-        <v>199090.0826661637</v>
+        <v>206341.3581055692</v>
       </c>
       <c r="C13" s="4">
         <f>(B13/B14-1)*100</f>
@@ -602,10 +604,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>41244</v>
+        <v>41609</v>
       </c>
       <c r="B14" t="n">
-        <v>179897.5178109916</v>
+        <v>199090.0826661637</v>
       </c>
       <c r="C14" s="4">
         <f>(B14/B15-1)*100</f>
@@ -614,10 +616,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>40878</v>
+        <v>41244</v>
       </c>
       <c r="B15" t="n">
-        <v>169353.7214555221</v>
+        <v>179897.5178109916</v>
       </c>
       <c r="C15" s="4">
         <f>(B15/B16-1)*100</f>
@@ -626,10 +628,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>40513</v>
+        <v>40878</v>
       </c>
       <c r="B16" t="n">
-        <v>175904.6791755914</v>
+        <v>169353.7214555221</v>
       </c>
       <c r="C16" s="4">
         <f>(B16/B17-1)*100</f>
@@ -638,10 +640,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>40148</v>
+        <v>40513</v>
       </c>
       <c r="B17" t="n">
-        <v>183052.0488888422</v>
+        <v>175904.6791755914</v>
       </c>
       <c r="C17" s="4">
         <f>(B17/B18-1)*100</f>
@@ -650,10 +652,10 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>39783</v>
+        <v>40148</v>
       </c>
       <c r="B18" t="n">
-        <v>190229.6905495847</v>
+        <v>183052.0488888422</v>
       </c>
       <c r="C18" s="4">
         <f>(B18/B19-1)*100</f>
@@ -662,10 +664,10 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>39417</v>
+        <v>39783</v>
       </c>
       <c r="B19" t="n">
-        <v>216278.724948895</v>
+        <v>190229.6905495847</v>
       </c>
       <c r="C19" s="4">
         <f>(B19/B20-1)*100</f>
@@ -674,10 +676,10 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>39052</v>
+        <v>39417</v>
       </c>
       <c r="B20" t="n">
-        <v>227248.2072318685</v>
+        <v>216278.724948895</v>
       </c>
       <c r="C20" s="4">
         <f>(B20/B21-1)*100</f>
@@ -686,10 +688,10 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>38687</v>
+        <v>39052</v>
       </c>
       <c r="B21" t="n">
-        <v>224337.8965776556</v>
+        <v>227248.2072318685</v>
       </c>
       <c r="C21" s="4">
         <f>(B21/B22-1)*100</f>
@@ -698,10 +700,10 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>38322</v>
+        <v>38687</v>
       </c>
       <c r="B22" t="n">
-        <v>197209.3726811312</v>
+        <v>224337.8965776556</v>
       </c>
       <c r="C22" s="4">
         <f>(B22/B23-1)*100</f>
@@ -710,10 +712,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>37956</v>
+        <v>38322</v>
       </c>
       <c r="B23" t="n">
-        <v>174485.201698601</v>
+        <v>197209.3726811312</v>
       </c>
       <c r="C23" s="4">
         <f>(B23/B24-1)*100</f>
@@ -722,10 +724,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>37591</v>
+        <v>37956</v>
       </c>
       <c r="B24" t="n">
-        <v>159030.5353823889</v>
+        <v>174485.201698601</v>
       </c>
       <c r="C24" s="4">
         <f>(B24/B25-1)*100</f>
@@ -734,10 +736,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>37226</v>
+        <v>37591</v>
       </c>
       <c r="B25" t="n">
-        <v>145085.1383994636</v>
+        <v>159030.5353823889</v>
       </c>
       <c r="C25" s="4">
         <f>(B25/B26-1)*100</f>
@@ -746,10 +748,10 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>36861</v>
+        <v>37226</v>
       </c>
       <c r="B26" t="n">
-        <v>136628.9362392867</v>
+        <v>145085.1383994636</v>
       </c>
       <c r="C26" s="4">
         <f>(B26/B27-1)*100</f>
@@ -758,10 +760,10 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>36495</v>
+        <v>36861</v>
       </c>
       <c r="B27" t="n">
-        <v>124885.7847985617</v>
+        <v>136628.9362392867</v>
       </c>
       <c r="C27" s="4">
         <f>(B27/B28-1)*100</f>
@@ -770,10 +772,10 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>36130</v>
+        <v>36495</v>
       </c>
       <c r="B28" t="n">
-        <v>116053.2218385024</v>
+        <v>124885.7847985617</v>
       </c>
       <c r="C28" s="4">
         <f>(B28/B29-1)*100</f>
@@ -782,10 +784,10 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>35765</v>
+        <v>36130</v>
       </c>
       <c r="B29" t="n">
-        <v>109053.0884935062</v>
+        <v>116053.2218385024</v>
       </c>
       <c r="C29" s="4">
         <f>(B29/B30-1)*100</f>
@@ -794,10 +796,10 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>35400</v>
+        <v>35765</v>
       </c>
       <c r="B30" t="n">
-        <v>105008.9738419335</v>
+        <v>109053.0884935062</v>
       </c>
       <c r="C30" s="4">
         <f>(B30/B31-1)*100</f>
@@ -806,10 +808,10 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>35034</v>
+        <v>35400</v>
       </c>
       <c r="B31" t="n">
-        <v>102773.8549856475</v>
+        <v>105008.9738419335</v>
       </c>
       <c r="C31" s="4">
         <f>(B31/B32-1)*100</f>
@@ -818,10 +820,10 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>34669</v>
+        <v>35034</v>
       </c>
       <c r="B32" t="n">
-        <v>100739.8593911823</v>
+        <v>102773.8549856475</v>
       </c>
       <c r="C32" s="4">
         <f>(B32/B33-1)*100</f>
@@ -830,10 +832,10 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>34304</v>
+        <v>34669</v>
       </c>
       <c r="B33" t="n">
-        <v>98137.15792734396</v>
+        <v>100739.8593911823</v>
       </c>
       <c r="C33" s="4">
         <f>(B33/B34-1)*100</f>
@@ -842,10 +844,10 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>33939</v>
+        <v>34304</v>
       </c>
       <c r="B34" t="n">
-        <v>96266.13205716731</v>
+        <v>98137.15792734396</v>
       </c>
       <c r="C34" s="4">
         <f>(B34/B35-1)*100</f>
@@ -854,10 +856,10 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33573</v>
+        <v>33939</v>
       </c>
       <c r="B35" t="n">
-        <v>95068.3800635935</v>
+        <v>96266.13205716731</v>
       </c>
       <c r="C35" s="4">
         <f>(B35/B36-1)*100</f>
@@ -866,10 +868,10 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>33208</v>
+        <v>33573</v>
       </c>
       <c r="B36" t="n">
-        <v>95592.75539607432</v>
+        <v>95068.3800635935</v>
       </c>
       <c r="C36" s="4">
         <f>(B36/B37-1)*100</f>
@@ -878,10 +880,10 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>32843</v>
+        <v>33208</v>
       </c>
       <c r="B37" t="n">
-        <v>96325.46303259025</v>
+        <v>95592.75539607432</v>
       </c>
       <c r="C37" s="4">
         <f>(B37/B38-1)*100</f>
@@ -890,10 +892,10 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>32478</v>
+        <v>32843</v>
       </c>
       <c r="B38" t="n">
-        <v>91786.92509104627</v>
+        <v>96325.46303259025</v>
       </c>
       <c r="C38" s="4">
         <f>(B38/B39-1)*100</f>
@@ -902,10 +904,10 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>32112</v>
+        <v>32478</v>
       </c>
       <c r="B39" t="n">
-        <v>85506.1793818608</v>
+        <v>91786.92509104627</v>
       </c>
       <c r="C39" s="4">
         <f>(B39/B40-1)*100</f>
@@ -914,10 +916,10 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>31747</v>
+        <v>32112</v>
       </c>
       <c r="B40" t="n">
-        <v>76490.81306132278</v>
+        <v>85506.1793818608</v>
       </c>
       <c r="C40" s="4">
         <f>(B40/B41-1)*100</f>
@@ -926,10 +928,10 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>31382</v>
+        <v>31747</v>
       </c>
       <c r="B41" t="n">
-        <v>71000.12054375342</v>
+        <v>76490.81306132278</v>
       </c>
       <c r="C41" s="4">
         <f>(B41/B42-1)*100</f>
@@ -938,10 +940,10 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>31017</v>
+        <v>31382</v>
       </c>
       <c r="B42" t="n">
-        <v>66966.30450368128</v>
+        <v>71000.12054375342</v>
       </c>
       <c r="C42" s="4">
         <f>(B42/B43-1)*100</f>
@@ -950,10 +952,10 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>30651</v>
+        <v>31017</v>
       </c>
       <c r="B43" t="n">
-        <v>63979.06054421033</v>
+        <v>66966.30450368128</v>
       </c>
       <c r="C43" s="4">
         <f>(B43/B44-1)*100</f>
@@ -962,10 +964,10 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>30286</v>
+        <v>30651</v>
       </c>
       <c r="B44" t="n">
-        <v>61238.28749100733</v>
+        <v>63979.06054421033</v>
       </c>
       <c r="C44" s="4">
         <f>(B44/B45-1)*100</f>
@@ -974,10 +976,10 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>29921</v>
+        <v>30286</v>
       </c>
       <c r="B45" t="n">
-        <v>60275.20710890868</v>
+        <v>61238.28749100733</v>
       </c>
       <c r="C45" s="4">
         <f>(B45/B46-1)*100</f>
@@ -986,10 +988,10 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>29556</v>
+        <v>29921</v>
       </c>
       <c r="B46" t="n">
-        <v>57643.14242577764</v>
+        <v>60275.20710890868</v>
       </c>
       <c r="C46" s="4">
         <f>(B46/B47-1)*100</f>
@@ -998,10 +1000,10 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>29190</v>
+        <v>29556</v>
       </c>
       <c r="B47" t="n">
-        <v>54067.0231213182</v>
+        <v>57643.14242577764</v>
       </c>
       <c r="C47" s="4">
         <f>(B47/B48-1)*100</f>
@@ -1010,10 +1012,10 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>28825</v>
+        <v>29190</v>
       </c>
       <c r="B48" t="n">
-        <v>47771.17822371428</v>
+        <v>54067.0231213182</v>
       </c>
       <c r="C48" s="4">
         <f>(B48/B49-1)*100</f>
@@ -1022,10 +1024,10 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>28460</v>
+        <v>28825</v>
       </c>
       <c r="B49" t="n">
-        <v>42026.31858746926</v>
+        <v>47771.17822371428</v>
       </c>
       <c r="C49" s="4">
         <f>(B49/B50-1)*100</f>
@@ -1034,10 +1036,10 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>28095</v>
+        <v>28460</v>
       </c>
       <c r="B50" t="n">
-        <v>36907.78041254938</v>
+        <v>42026.31858746926</v>
       </c>
       <c r="C50" s="4">
         <f>(B50/B51-1)*100</f>
@@ -1046,10 +1048,10 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>27729</v>
+        <v>28095</v>
       </c>
       <c r="B51" t="n">
-        <v>34221.38390737407</v>
+        <v>36907.78041254938</v>
       </c>
       <c r="C51" s="4">
         <f>(B51/B52-1)*100</f>
@@ -1058,10 +1060,10 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>27364</v>
+        <v>27729</v>
       </c>
       <c r="B52" t="n">
-        <v>31651.65438156033</v>
+        <v>34221.38390737407</v>
       </c>
       <c r="C52" s="4">
         <f>(B52/B53-1)*100</f>
@@ -1070,10 +1072,10 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>26999</v>
+        <v>27364</v>
       </c>
       <c r="B53" t="n">
-        <v>29007.42660331321</v>
+        <v>31651.65438156033</v>
       </c>
       <c r="C53" s="4">
         <f>(B53/B54-1)*100</f>
@@ -1082,10 +1084,10 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>26634</v>
+        <v>26999</v>
       </c>
       <c r="B54" t="n">
-        <v>27880.09466499078</v>
+        <v>29007.42660331321</v>
       </c>
       <c r="C54" s="4">
         <f>(B54/B55-1)*100</f>
@@ -1094,10 +1096,10 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>26268</v>
+        <v>26634</v>
       </c>
       <c r="B55" t="n">
-        <v>26918.61805012997</v>
+        <v>27880.09466499078</v>
       </c>
       <c r="C55" s="4">
         <f>(B55/B56-1)*100</f>
@@ -1106,10 +1108,10 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>25903</v>
+        <v>26268</v>
       </c>
       <c r="B56" t="n">
-        <v>25789.78473982807</v>
+        <v>26918.61805012997</v>
       </c>
       <c r="C56" s="4">
         <f>(B56/B57-1)*100</f>
@@ -1118,10 +1120,10 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>25538</v>
+        <v>25903</v>
       </c>
       <c r="B57" t="n">
-        <v>23927.33692277824</v>
+        <v>25789.78473982807</v>
       </c>
       <c r="C57" s="4">
         <f>(B57/B58-1)*100</f>
@@ -1130,10 +1132,10 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>25173</v>
+        <v>25538</v>
       </c>
       <c r="B58" t="n">
-        <v>22295.04785107023</v>
+        <v>23927.33692277824</v>
       </c>
       <c r="C58" s="4">
         <f>(B58/B59-1)*100</f>
@@ -1142,10 +1144,10 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>24807</v>
+        <v>25173</v>
       </c>
       <c r="B59" t="n">
-        <v>21578.44742464433</v>
+        <v>22295.04785107023</v>
       </c>
       <c r="C59" s="4">
         <f>(B59/B60-1)*100</f>
@@ -1154,10 +1156,10 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>24442</v>
+        <v>24807</v>
       </c>
       <c r="B60" t="n">
-        <v>20992.6605448443</v>
+        <v>21578.44742464433</v>
       </c>
       <c r="C60" s="4">
         <f>(B60/B61-1)*100</f>
@@ -1166,10 +1168,10 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>24077</v>
+        <v>24442</v>
       </c>
       <c r="B61" t="n">
-        <v>20702.664501748</v>
+        <v>20992.6605448443</v>
       </c>
       <c r="C61" s="4">
         <f>(B61/B62-1)*100</f>
@@ -1178,10 +1180,10 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>23712</v>
+        <v>24077</v>
       </c>
       <c r="B62" t="n">
-        <v>20418.8732852883</v>
+        <v>20702.664501748</v>
       </c>
       <c r="C62" s="4">
         <f>(B62/B63-1)*100</f>
@@ -1190,10 +1192,10 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>23346</v>
+        <v>23712</v>
       </c>
       <c r="B63" t="n">
-        <v>20087.56444407198</v>
+        <v>20418.8732852883</v>
       </c>
       <c r="C63" s="4">
         <f>(B63/B64-1)*100</f>
@@ -1202,10 +1204,10 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>22981</v>
+        <v>23346</v>
       </c>
       <c r="B64" t="n">
-        <v>19757.54699927606</v>
+        <v>20087.56444407198</v>
       </c>
       <c r="C64" s="4">
         <f>(B64/B65-1)*100</f>
@@ -1214,10 +1216,10 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>22616</v>
+        <v>22981</v>
       </c>
       <c r="B65" t="n">
-        <v>19635.96959236622</v>
+        <v>19757.54699927606</v>
       </c>
       <c r="C65" s="4">
         <f>(B65/B66-1)*100</f>
@@ -1226,10 +1228,10 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>22251</v>
+        <v>22616</v>
       </c>
       <c r="B66" t="n">
-        <v>19529.79511684641</v>
+        <v>19635.96959236622</v>
       </c>
       <c r="C66" s="4">
         <f>(B66/B67-1)*100</f>
@@ -1238,10 +1240,10 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>21885</v>
+        <v>22251</v>
       </c>
       <c r="B67" t="n">
-        <v>19341.13999248492</v>
+        <v>19529.79511684641</v>
       </c>
       <c r="C67" s="4">
         <f>(B67/B68-1)*100</f>
@@ -1250,10 +1252,10 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>21520</v>
+        <v>21885</v>
       </c>
       <c r="B68" t="n">
-        <v>19373.6590913902</v>
+        <v>19341.13999248492</v>
       </c>
       <c r="C68" s="4">
         <f>(B68/B69-1)*100</f>
@@ -1262,10 +1264,10 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>21155</v>
+        <v>21520</v>
       </c>
       <c r="B69" t="n">
-        <v>19352.95687193014</v>
+        <v>19373.6590913902</v>
       </c>
       <c r="C69" s="4">
         <f>(B69/B70-1)*100</f>
@@ -1274,10 +1276,10 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>20790</v>
+        <v>21155</v>
       </c>
       <c r="B70" t="n">
-        <v>18695.75081207778</v>
+        <v>19352.95687193014</v>
       </c>
       <c r="C70" s="4">
         <f>(B70/B71-1)*100</f>
@@ -1286,10 +1288,10 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>20424</v>
+        <v>20790</v>
       </c>
       <c r="B71" t="n">
-        <v>18555.74675287444</v>
+        <v>18695.75081207778</v>
       </c>
       <c r="C71" s="4">
         <f>(B71/B72-1)*100</f>
@@ -1298,10 +1300,10 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>20059</v>
+        <v>20424</v>
       </c>
       <c r="B72" t="n">
-        <v>18499.9163776779</v>
+        <v>18555.74675287444</v>
       </c>
       <c r="C72" s="4">
         <f>(B72/B73-1)*100</f>
@@ -1310,10 +1312,10 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>19694</v>
+        <v>20059</v>
       </c>
       <c r="B73" t="n">
-        <v>18348.61829623271</v>
+        <v>18499.9163776779</v>
       </c>
       <c r="C73" s="4">
         <f>(B73/B74-1)*100</f>
@@ -1322,10 +1324,10 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>19329</v>
+        <v>19694</v>
       </c>
       <c r="B74" t="n">
-        <v>16403.66191023097</v>
+        <v>18348.61829623271</v>
       </c>
       <c r="C74" s="4">
         <f>(B74/B75-1)*100</f>
@@ -1334,10 +1336,10 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>18963</v>
+        <v>19329</v>
       </c>
       <c r="B75" t="n">
-        <v>15772.22461715327</v>
+        <v>16403.66191023097</v>
       </c>
       <c r="C75" s="4">
         <f>(B75/B76-1)*100</f>
@@ -1346,10 +1348,10 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>18598</v>
+        <v>18963</v>
       </c>
       <c r="B76" t="n">
-        <v>15110.91196384939</v>
+        <v>15772.22461715327</v>
       </c>
       <c r="C76" s="4">
         <f>(B76/B77-1)*100</f>
@@ -1358,10 +1360,10 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>18233</v>
+        <v>18598</v>
       </c>
       <c r="B77" t="n">
-        <v>14265.75134007458</v>
+        <v>15110.91196384939</v>
       </c>
       <c r="C77" s="4">
         <f>(B77/B78-1)*100</f>
@@ -1370,10 +1372,10 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>17868</v>
+        <v>18233</v>
       </c>
       <c r="B78" t="n">
-        <v>14246.72725245683</v>
+        <v>14265.75134007458</v>
       </c>
       <c r="C78" s="4">
         <f>(B78/B79-1)*100</f>
@@ -1382,10 +1384,10 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>17502</v>
+        <v>17868</v>
       </c>
       <c r="B79" t="n">
-        <v>14195.09753764645</v>
+        <v>14246.72725245683</v>
       </c>
       <c r="C79" s="4">
         <f>(B79/B80-1)*100</f>
@@ -1394,10 +1396,10 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>17137</v>
+        <v>17502</v>
       </c>
       <c r="B80" t="n">
-        <v>11669.34334965839</v>
+        <v>14195.09753764645</v>
       </c>
       <c r="C80" s="4">
         <f>(B80/B81-1)*100</f>
@@ -1406,10 +1408,10 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>16772</v>
+        <v>17137</v>
       </c>
       <c r="B81" t="n">
-        <v>9472.789451079869</v>
+        <v>11669.34334965839</v>
       </c>
       <c r="C81" s="4">
         <f>(B81/B82-1)*100</f>
@@ -1418,10 +1420,10 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>16407</v>
+        <v>16772</v>
       </c>
       <c r="B82" t="n">
-        <v>8490.49612803212</v>
+        <v>9472.789451079869</v>
       </c>
       <c r="C82" s="4">
         <f>(B82/B83-1)*100</f>
@@ -1430,10 +1432,10 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>16041</v>
+        <v>16407</v>
       </c>
       <c r="B83" t="n">
-        <v>7302.845823435314</v>
+        <v>8490.49612803212</v>
       </c>
       <c r="C83" s="4">
         <f>(B83/B84-1)*100</f>
@@ -1442,10 +1444,10 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>15676</v>
+        <v>16041</v>
       </c>
       <c r="B84" t="n">
-        <v>6567.254012144026</v>
+        <v>7302.845823435314</v>
       </c>
       <c r="C84" s="4">
         <f>(B84/B85-1)*100</f>
@@ -1454,10 +1456,10 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>15311</v>
+        <v>15676</v>
       </c>
       <c r="B85" t="n">
-        <v>6412.48525657854</v>
+        <v>6567.254012144026</v>
       </c>
       <c r="C85" s="4">
         <f>(B85/B86-1)*100</f>
@@ -1466,10 +1468,10 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>14946</v>
+        <v>15311</v>
       </c>
       <c r="B86" t="n">
-        <v>6771.681280460784</v>
+        <v>6412.48525657854</v>
       </c>
       <c r="C86" s="4">
         <f>(B86/B87-1)*100</f>
@@ -1478,10 +1480,10 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>14580</v>
+        <v>14946</v>
       </c>
       <c r="B87" t="n">
-        <v>6510.611185143123</v>
+        <v>6771.681280460784</v>
       </c>
       <c r="C87" s="4">
         <f>(B87/B88-1)*100</f>
@@ -1490,10 +1492,10 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>14215</v>
+        <v>14580</v>
       </c>
       <c r="B88" t="n">
-        <v>6644.25320054653</v>
+        <v>6510.611185143123</v>
       </c>
       <c r="C88" s="4">
         <f>(B88/B89-1)*100</f>
@@ -1502,10 +1504,10 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>13850</v>
+        <v>14215</v>
       </c>
       <c r="B89" t="n">
-        <v>6607.858154359089</v>
+        <v>6644.25320054653</v>
       </c>
       <c r="C89" s="4">
         <f>(B89/B90-1)*100</f>
@@ -1514,10 +1516,10 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>13485</v>
+        <v>13850</v>
       </c>
       <c r="B90" t="n">
-        <v>6579.994047759707</v>
+        <v>6607.858154359089</v>
       </c>
       <c r="C90" s="4">
         <f>(B90/B91-1)*100</f>
@@ -1526,10 +1528,10 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>13119</v>
+        <v>13485</v>
       </c>
       <c r="B91" t="n">
-        <v>6332.363976410523</v>
+        <v>6579.994047759707</v>
       </c>
       <c r="C91" s="4">
         <f>(B91/B92-1)*100</f>
@@ -1538,10 +1540,10 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>12754</v>
+        <v>13119</v>
       </c>
       <c r="B92" t="n">
-        <v>5860.082956575027</v>
+        <v>6332.363976410523</v>
       </c>
       <c r="C92" s="4">
         <f>(B92/B93-1)*100</f>
@@ -1550,10 +1552,10 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>12389</v>
+        <v>12754</v>
       </c>
       <c r="B93" t="n">
-        <v>5613.045412550166</v>
+        <v>5860.082956575027</v>
       </c>
       <c r="C93" s="4">
         <f>(B93/B94-1)*100</f>
@@ -1562,10 +1564,10 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>12024</v>
+        <v>12389</v>
       </c>
       <c r="B94" t="n">
-        <v>5740.217318041689</v>
+        <v>5613.045412550166</v>
       </c>
       <c r="C94" s="4">
         <f>(B94/B95-1)*100</f>
@@ -1574,10 +1576,10 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>11658</v>
+        <v>12024</v>
       </c>
       <c r="B95" t="n">
-        <v>6378.146069740691</v>
+        <v>5740.217318041689</v>
       </c>
       <c r="C95" s="4">
         <f>(B95/B96-1)*100</f>
@@ -1586,10 +1588,10 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>11293</v>
+        <v>11658</v>
       </c>
       <c r="B96" t="n">
-        <v>6991.504210014475</v>
+        <v>6378.146069740691</v>
       </c>
       <c r="C96" s="4">
         <f>(B96/B97-1)*100</f>
@@ -1598,10 +1600,10 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>10928</v>
+        <v>11293</v>
       </c>
       <c r="B97" t="n">
-        <v>7342.561305457167</v>
+        <v>6991.504210014475</v>
       </c>
       <c r="C97" s="4">
         <f>(B97/B98-1)*100</f>
@@ -1610,10 +1612,10 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>10563</v>
+        <v>10928</v>
       </c>
       <c r="B98" t="n">
-        <v>7540.501137780099</v>
+        <v>7342.561305457167</v>
       </c>
       <c r="C98" s="4">
         <f>(B98/B99-1)*100</f>
@@ -1622,10 +1624,10 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>10197</v>
+        <v>10563</v>
       </c>
       <c r="B99" t="n">
-        <v>7427.819520822734</v>
+        <v>7540.501137780099</v>
       </c>
       <c r="C99" s="4">
         <f>(B99/B100-1)*100</f>
@@ -1634,10 +1636,10 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>9832</v>
+        <v>10197</v>
       </c>
       <c r="B100" t="n">
-        <v>7630.151530195594</v>
+        <v>7427.819520822734</v>
       </c>
       <c r="C100" s="4">
         <f>(B100/B101-1)*100</f>
@@ -1646,10 +1648,10 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>9467</v>
+        <v>9832</v>
       </c>
       <c r="B101" t="n">
-        <v>8047.130264497446</v>
+        <v>7630.151530195594</v>
       </c>
       <c r="C101" s="4">
         <f>(B101/B102-1)*100</f>
@@ -1658,10 +1660,10 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>9102</v>
+        <v>9467</v>
       </c>
       <c r="B102" t="n">
-        <v>7652.47388577961</v>
+        <v>8047.130264497446</v>
       </c>
       <c r="C102" s="4">
         <f>(B102/B103-1)*100</f>
@@ -1670,10 +1672,10 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>8736</v>
+        <v>9102</v>
       </c>
       <c r="B103" t="n">
-        <v>7637.523665951251</v>
+        <v>7652.47388577961</v>
       </c>
       <c r="C103" s="4">
         <f>(B103/B104-1)*100</f>
@@ -1682,10 +1684,10 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>8371</v>
+        <v>8736</v>
       </c>
       <c r="B104" t="n">
-        <v>7479.934159467395</v>
+        <v>7637.523665951251</v>
       </c>
       <c r="C104" s="4">
         <f>(B104/B105-1)*100</f>
@@ -1694,10 +1696,10 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>8006</v>
+        <v>8371</v>
       </c>
       <c r="B105" t="n">
-        <v>7248.010817784914</v>
+        <v>7479.934159467395</v>
       </c>
       <c r="C105" s="4">
         <f>(B105/B106-1)*100</f>
@@ -1706,10 +1708,10 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>7641</v>
+        <v>8006</v>
       </c>
       <c r="B106" t="n">
-        <v>7352.065716568733</v>
+        <v>7248.010817784914</v>
       </c>
       <c r="C106" s="4">
         <f>(B106/B107-1)*100</f>
@@ -1718,10 +1720,10 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>7275</v>
+        <v>7641</v>
       </c>
       <c r="B107" t="n">
-        <v>6987.168123994656</v>
+        <v>7352.065716568733</v>
       </c>
       <c r="C107" s="4">
         <f>(B107/B108-1)*100</f>
@@ -1730,10 +1732,10 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>6910</v>
+        <v>7275</v>
       </c>
       <c r="B108" t="n">
-        <v>6183.985372051873</v>
+        <v>6987.168123994656</v>
       </c>
       <c r="C108" s="4">
         <f>(B108/B109-1)*100</f>
@@ -1742,10 +1744,10 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>6545</v>
+        <v>6910</v>
       </c>
       <c r="B109" t="n">
-        <v>5824.365594590272</v>
+        <v>6183.985372051873</v>
       </c>
       <c r="C109" s="4">
         <f>(B109/B110-1)*100</f>
@@ -1754,10 +1756,10 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>6180</v>
+        <v>6545</v>
       </c>
       <c r="B110" t="n">
-        <v>5491.832994215425</v>
+        <v>5824.365594590272</v>
       </c>
       <c r="C110" s="4">
         <f>(B110/B111-1)*100</f>
@@ -1766,10 +1768,10 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>5814</v>
+        <v>6180</v>
       </c>
       <c r="B111" t="n">
-        <v>5005.572719796514</v>
+        <v>5491.832994215425</v>
       </c>
       <c r="C111" s="4">
         <f>(B111/B112-1)*100</f>
@@ -1778,10 +1780,10 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>5449</v>
+        <v>5814</v>
       </c>
       <c r="B112" t="n">
-        <v>5382.680823540806</v>
+        <v>5005.572719796514</v>
       </c>
       <c r="C112" s="4">
         <f>(B112/B113-1)*100</f>
@@ -1790,10 +1792,10 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>5084</v>
+        <v>5449</v>
       </c>
       <c r="B113" t="n">
-        <v>5190.864587703784</v>
+        <v>5382.680823540806</v>
       </c>
       <c r="C113" s="4">
         <f>(B113/B114-1)*100</f>
@@ -1802,10 +1804,10 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4719</v>
+        <v>5084</v>
       </c>
       <c r="B114" t="n">
-        <v>5241.411711962859</v>
+        <v>5190.864587703784</v>
       </c>
       <c r="C114" s="4">
         <f>(B114/B115-1)*100</f>
@@ -1814,10 +1816,10 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4353</v>
+        <v>4719</v>
       </c>
       <c r="B115" t="n">
-        <v>5033.030895923254</v>
+        <v>5241.411711962859</v>
       </c>
       <c r="C115" s="4">
         <f>(B115/B116-1)*100</f>
@@ -1826,10 +1828,10 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>3988</v>
+        <v>4353</v>
       </c>
       <c r="B116" t="n">
-        <v>5100.248196434949</v>
+        <v>5033.030895923254</v>
       </c>
       <c r="C116" s="4">
         <f>(B116/B117-1)*100</f>
@@ -1838,10 +1840,10 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>3623</v>
+        <v>3988</v>
       </c>
       <c r="B117" t="n">
-        <v>4631.290269876487</v>
+        <v>5100.248196434949</v>
       </c>
       <c r="C117" s="4">
         <f>(B117/B118-1)*100</f>
@@ -1850,10 +1852,10 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>3258</v>
+        <v>3623</v>
       </c>
       <c r="B118" t="n">
-        <v>4669.890550819272</v>
+        <v>4631.290269876487</v>
       </c>
       <c r="C118" s="4">
         <f>(B118/B119-1)*100</f>
@@ -1862,10 +1864,10 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>2892</v>
+        <v>3258</v>
       </c>
       <c r="B119" t="n">
-        <v>5155.624020482737</v>
+        <v>4669.890550819272</v>
       </c>
       <c r="C119" s="4">
         <f>(B119/B120-1)*100</f>
@@ -1874,10 +1876,10 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>2527</v>
+        <v>2892</v>
       </c>
       <c r="B120" t="n">
-        <v>4662.117095747813</v>
+        <v>5155.624020482737</v>
       </c>
       <c r="C120" s="4">
         <f>(B120/B121-1)*100</f>
@@ -1886,10 +1888,10 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>2162</v>
+        <v>2527</v>
       </c>
       <c r="B121" t="n">
-        <v>3987.827467735954</v>
+        <v>4662.117095747813</v>
       </c>
       <c r="C121" s="4">
         <f>(B121/B122-1)*100</f>
@@ -1898,10 +1900,10 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>1797</v>
+        <v>2162</v>
       </c>
       <c r="B122" t="n">
-        <v>4550.924872233233</v>
+        <v>3987.827467735954</v>
       </c>
       <c r="C122" s="4">
         <f>(B122/B123-1)*100</f>
@@ -1910,10 +1912,10 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>1431</v>
+        <v>1797</v>
       </c>
       <c r="B123" t="n">
-        <v>4452.21253873372</v>
+        <v>4550.924872233233</v>
       </c>
       <c r="C123" s="4">
         <f>(B123/B124-1)*100</f>
@@ -1922,10 +1924,10 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>1066</v>
+        <v>1431</v>
       </c>
       <c r="B124" t="n">
-        <v>4319.363566407303</v>
+        <v>4452.21253873372</v>
       </c>
       <c r="C124" s="4">
         <f>(B124/B125-1)*100</f>
@@ -1934,10 +1936,10 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>701</v>
+        <v>1066</v>
       </c>
       <c r="B125" t="n">
-        <v>3609.438942200557</v>
+        <v>4319.363566407303</v>
       </c>
       <c r="C125" s="4">
         <f>(B125/B126-1)*100</f>
@@ -1946,10 +1948,10 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>336</v>
+        <v>701</v>
       </c>
       <c r="B126" t="n">
-        <v>4381.989040158419</v>
+        <v>3609.438942200557</v>
       </c>
       <c r="C126" s="4">
         <f>(B126/B127-1)*100</f>
@@ -1957,141 +1959,153 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="inlineStr">
+      <c r="A127" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4381.989040158419</v>
+      </c>
+      <c r="C127" s="4">
+        <f>(B127/B128-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
         <is>
           <t>Dec 1, 1899</t>
         </is>
       </c>
-      <c r="B127" t="n">
+      <c r="B128" t="n">
         <v>3768.491934190013</v>
       </c>
-      <c r="C127" s="4">
-        <f>(B127/B128-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="inlineStr">
+      <c r="C128" s="4">
+        <f>(B128/B129-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
         <is>
           <t>Dec 1, 1898</t>
         </is>
       </c>
-      <c r="B128" t="n">
+      <c r="B129" t="n">
         <v>3819.442216411643</v>
       </c>
-      <c r="C128" s="4">
-        <f>(B128/B129-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="inlineStr">
+      <c r="C129" s="4">
+        <f>(B129/B130-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
         <is>
           <t>Dec 1, 1897</t>
         </is>
       </c>
-      <c r="B129" t="n">
+      <c r="B130" t="n">
         <v>3589.17764906615</v>
       </c>
-      <c r="C129" s="4">
-        <f>(B129/B130-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="inlineStr">
+      <c r="C130" s="4">
+        <f>(B130/B131-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
         <is>
           <t>Dec 1, 1896</t>
         </is>
       </c>
-      <c r="B130" t="n">
+      <c r="B131" t="n">
         <v>3382.925540234392</v>
       </c>
-      <c r="C130" s="4">
-        <f>(B130/B131-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="inlineStr">
+      <c r="C131" s="4">
+        <f>(B131/B132-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
         <is>
           <t>Dec 1, 1895</t>
         </is>
       </c>
-      <c r="B131" t="n">
+      <c r="B132" t="n">
         <v>3975.893453928401</v>
       </c>
-      <c r="C131" s="4">
-        <f>(B131/B132-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="inlineStr">
+      <c r="C132" s="4">
+        <f>(B132/B133-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
         <is>
           <t>Dec 1, 1894</t>
         </is>
       </c>
-      <c r="B132" t="n">
+      <c r="B133" t="n">
         <v>4437.01486553138</v>
       </c>
-      <c r="C132" s="4">
-        <f>(B132/B133-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="inlineStr">
+      <c r="C133" s="4">
+        <f>(B133/B134-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
         <is>
           <t>Dec 1, 1893</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="B134" t="n">
         <v>3673.846540981252</v>
       </c>
-      <c r="C133" s="4">
-        <f>(B133/B134-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="inlineStr">
+      <c r="C134" s="4">
+        <f>(B134/B135-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
         <is>
           <t>Dec 1, 1892</t>
         </is>
       </c>
-      <c r="B134" t="n">
+      <c r="B135" t="n">
         <v>3695.510726213396</v>
       </c>
-      <c r="C134" s="4">
-        <f>(B134/B135-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="inlineStr">
+      <c r="C135" s="4">
+        <f>(B135/B136-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
         <is>
           <t>Dec 1, 1891</t>
         </is>
       </c>
-      <c r="B135" t="n">
+      <c r="B136" t="n">
         <v>3409.555010517424</v>
       </c>
-      <c r="C135" s="4">
-        <f>(B135/B136-1)*100</f>
-        <v/>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="inlineStr">
+      <c r="C136" s="4">
+        <f>(B136/B137-1)*100</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
         <is>
           <t>Dec 1, 1890</t>
         </is>
       </c>
-      <c r="B136" t="n">
+      <c r="B137" t="n">
         <v>3842.232035316646</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C137" s="4">
         <f>(B136/B148-1)*100</f>
         <v/>
       </c>

--- a/data/us-home-prices.xlsx
+++ b/data/us-home-prices.xlsx
@@ -457,11 +457,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-01-01</t>
+          <t>2025-02-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1140</v>
+        <v>393400</v>
       </c>
       <c r="C2">
         <f>(B2/B3-1)*100</f>

--- a/data/us-home-prices.xlsx
+++ b/data/us-home-prices.xlsx
@@ -457,11 +457,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-03-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>393400</v>
+        <v>403700</v>
       </c>
       <c r="C2">
         <f>(B2/B3-1)*100</f>

--- a/data/us-home-prices.xlsx
+++ b/data/us-home-prices.xlsx
@@ -457,11 +457,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>403700</v>
+        <v>414000</v>
       </c>
       <c r="C2">
         <f>(B2/B3-1)*100</f>

--- a/data/us-home-prices.xlsx
+++ b/data/us-home-prices.xlsx
@@ -457,11 +457,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2025-05-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414000</v>
+        <v>422800</v>
       </c>
       <c r="C2">
         <f>(B2/B3-1)*100</f>

--- a/data/us-home-prices.xlsx
+++ b/data/us-home-prices.xlsx
@@ -457,11 +457,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-05-01</t>
+          <t>2025-06-01</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422800</v>
+        <v>1540</v>
       </c>
       <c r="C2">
         <f>(B2/B3-1)*100</f>

--- a/data/us-home-prices.xlsx
+++ b/data/us-home-prices.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-01</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/data/us-home-prices.xlsx
+++ b/data/us-home-prices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanMcLean\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93AC3056-3E28-4252-AF6A-4DD6CB80A885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEF789C6-1C7E-4EE0-B91E-F0F7FBC72BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
